--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Exercise Files/Exercise 05.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Exercise Files/Exercise 05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Exercise Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Exercise Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F20882B7-6D8F-470D-9F07-FE2339C2AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21430EAD-A143-4362-99AF-90846551FFD2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E39A10A-51F7-45E0-9EF2-35A331081FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{87086D7C-E15A-4DDD-84EA-511E0F01876E}"/>
+    <workbookView xWindow="5280" yWindow="3024" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{87086D7C-E15A-4DDD-84EA-511E0F01876E}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUNDING" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -288,8 +287,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -388,21 +387,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1045,7 +1045,7 @@
   <dimension ref="A3:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1086,10 @@
       <c r="C4" s="5">
         <v>2298</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <f>ROUND(C4*$G$3+C4,2)</f>
+        <v>2642.7</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1098,7 +1101,10 @@
       <c r="C5" s="5">
         <v>1193</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D26" si="0">ROUND(C5*$G$3+C5,2)</f>
+        <v>1371.95</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1110,7 +1116,10 @@
       <c r="C6" s="5">
         <v>4226</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>4859.8999999999996</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1122,7 +1131,10 @@
       <c r="C7" s="5">
         <v>4814</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>5536.1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1134,7 +1146,10 @@
       <c r="C8" s="5">
         <v>4399</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>5058.8500000000004</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1146,7 +1161,10 @@
       <c r="C9" s="5">
         <v>2205</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>2535.75</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1158,7 +1176,10 @@
       <c r="C10" s="5">
         <v>2143</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>2464.4499999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1170,7 +1191,10 @@
       <c r="C11" s="5">
         <v>2091</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>2404.65</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1182,7 +1206,10 @@
       <c r="C12" s="5">
         <v>3749</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>4311.3500000000004</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1194,7 +1221,10 @@
       <c r="C13" s="5">
         <v>4105</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>4720.75</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1206,7 +1236,10 @@
       <c r="C14" s="5">
         <v>2129</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>2448.35</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1218,7 +1251,10 @@
       <c r="C15" s="5">
         <v>4037</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>4642.55</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1230,7 +1266,10 @@
       <c r="C16" s="5">
         <v>2987</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>3435.05</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1242,7 +1281,10 @@
       <c r="C17" s="5">
         <v>2422</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>2785.3</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1254,7 +1296,10 @@
       <c r="C18" s="5">
         <v>1464</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>1683.6</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1266,7 +1311,10 @@
       <c r="C19" s="5">
         <v>3786</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>4353.8999999999996</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1278,7 +1326,10 @@
       <c r="C20" s="5">
         <v>4918</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>5655.7</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1290,7 +1341,10 @@
       <c r="C21" s="5">
         <v>3837</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>4412.55</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1302,7 +1356,10 @@
       <c r="C22" s="5">
         <v>2587</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>2975.05</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1314,7 +1371,10 @@
       <c r="C23" s="5">
         <v>4598</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>5287.7</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1326,7 +1386,10 @@
       <c r="C24" s="5">
         <v>3523</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>4051.45</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1338,7 +1401,10 @@
       <c r="C25" s="5">
         <v>1335</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>1535.25</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1350,7 +1416,10 @@
       <c r="C26" s="5">
         <v>4250</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>4887.5</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
@@ -1368,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7FBF44-5247-40DB-8B3B-2903F900BB0D}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1407,8 +1476,14 @@
       <c r="B3" s="5">
         <v>28566</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="3">
+        <f>B3*$G$2</f>
+        <v>1142.6400000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <f>MROUND(B3+C3,100)</f>
+        <v>29700</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1417,8 +1492,14 @@
       <c r="B4" s="5">
         <v>29074</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C18" si="0">B4*$G$2</f>
+        <v>1162.96</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D18" si="1">MROUND(B4+C4,100)</f>
+        <v>30200</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1427,8 +1508,14 @@
       <c r="B5" s="5">
         <v>30508</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>1220.32</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>31700</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1437,8 +1524,14 @@
       <c r="B6" s="5">
         <v>31893</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1275.72</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>33200</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1447,8 +1540,14 @@
       <c r="B7" s="5">
         <v>44648</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>1785.92</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>46400</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1457,8 +1556,14 @@
       <c r="B8" s="5">
         <v>35369</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>1414.76</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>36800</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1467,8 +1572,14 @@
       <c r="B9" s="5">
         <v>28685</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1147.4000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>29800</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1477,8 +1588,14 @@
       <c r="B10" s="5">
         <v>41241</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1649.64</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>42900</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1487,8 +1604,14 @@
       <c r="B11" s="5">
         <v>43449</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>1737.96</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>45200</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1497,8 +1620,14 @@
       <c r="B12" s="5">
         <v>39750</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>1590</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>41300</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1507,8 +1636,14 @@
       <c r="B13" s="5">
         <v>34104</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>1364.16</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>35500</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1517,8 +1652,14 @@
       <c r="B14" s="5">
         <v>37279</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>1491.16</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>38800</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1527,8 +1668,14 @@
       <c r="B15" s="5">
         <v>26567</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>1062.68</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>27600</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1537,8 +1684,14 @@
       <c r="B16" s="5">
         <v>45754</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>1830.16</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>47600</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1547,8 +1700,14 @@
       <c r="B17" s="5">
         <v>28535</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>1141.4000000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>29700</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1557,8 +1716,14 @@
       <c r="B18" s="5">
         <v>45055</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>1802.2</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>46900</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1570,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A022B0-3BD3-41F3-9989-336B90FBB275}">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,13 +1963,19 @@
       <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="11">
+        <f ca="1">_xlfn.AGGREGATE(9,7,C3:C18)</f>
+        <v>4256</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="12">
+        <f ca="1">_xlfn.AGGREGATE(1,7,C3:C18)</f>
+        <v>354.66666666666669</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
